--- a/scripts/strategy_tester/results/20181201_20190131-trend_ema-ltc_usd/TestAnalysis.xlsx
+++ b/scripts/strategy_tester/results/20181201_20190131-trend_ema-ltc_usd/TestAnalysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software Development\zenbot\scripts\strategy_tester\results\20190206-ltc_usd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software Development\zenbot\scripts\strategy_tester\results\20181201_20190131-trend_ema-ltc_usd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABFE03D-C8C3-4FE6-869E-88AAC376FF64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2B5822-03F7-4A9B-AED7-46096D6B4A64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57585" yWindow="-15" windowWidth="28830" windowHeight="15630" xr2:uid="{1FFE611C-5475-4FA6-8D83-42481329A3B4}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1FFE611C-5475-4FA6-8D83-42481329A3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ltc-usd_dec-2018" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'ltc-usd_dec-2018'!$A$1:$C$577</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'ltc-usd_jan-2019'!$A$1:$C$577</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'ltc-usd_jan-2019'!$A$1:$C$579</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">Sheet1!$A$2:$C$578</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">Sheet1!$E$2:$G$578</definedName>
   </definedNames>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4622" uniqueCount="1303">
   <si>
     <t>Percent</t>
   </si>
@@ -3959,6 +3959,12 @@
   </si>
   <si>
     <t>zenbot sim gdax.LTC-USD --strategy=trend_ema --start=20190101 --end=20190201  --period=15m --min_periods=200 --sell_stop_pct=1 --profit_stop_enable_pct=6 --max_slippage_pct=1 --trend_ema=10 --neutral_rate=auto --oversold_rsi_periods=7 --oversold_rsi=25 --order_type=maker --silent</t>
+  </si>
+  <si>
+    <t>21/36</t>
+  </si>
+  <si>
+    <t>zenbot sim gdax.LTC-USD --strategy=trend_ema --start=20190101 --end=20190201  --period=2m --min_periods=200 --sell_stop_pct=1 --profit_stop_enable_pct=6 --max_slippage_pct=1 --trend_ema=10 --neutral_rate=auto --oversold_rsi_periods=5 --oversold_rsi=8 --order_type=taker --silent --markdown_buy_price=0 --markup_sell_price=1</t>
   </si>
 </sst>
 </file>
@@ -4058,35 +4064,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <strike val="0"/>
@@ -4214,6 +4192,34 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
@@ -4279,6 +4285,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4415,60 +4431,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65164B32-83AD-4E34-AB27-24C9DD68936E}" name="result_trend_ema_gdax_LTC_USD_20181201_20190101" displayName="result_trend_ema_gdax_LTC_USD_20181201_20190101" ref="A1:C577" tableType="queryTable" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65164B32-83AD-4E34-AB27-24C9DD68936E}" name="result_trend_ema_gdax_LTC_USD_20181201_20190101" displayName="result_trend_ema_gdax_LTC_USD_20181201_20190101" ref="A1:C577" tableType="queryTable" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:C577" xr:uid="{F3385074-C2FB-4758-B165-B1CC4E94188F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C577">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0690B6B7-05A5-48C6-B0BE-4795D7498789}" uniqueName="1" name="Percent" queryTableFieldId="1" dataDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{3325999E-D793-4CCF-A2C4-4677455527D6}" uniqueName="2" name="WinLoss" queryTableFieldId="2" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{F6FB045B-23B0-458E-B9F4-6396E650E9C5}" uniqueName="3" name="StrategyProcess" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{0690B6B7-05A5-48C6-B0BE-4795D7498789}" uniqueName="1" name="Percent" queryTableFieldId="1" dataDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{3325999E-D793-4CCF-A2C4-4677455527D6}" uniqueName="2" name="WinLoss" queryTableFieldId="2" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{F6FB045B-23B0-458E-B9F4-6396E650E9C5}" uniqueName="3" name="StrategyProcess" queryTableFieldId="3" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B53C459D-31ED-47E2-B5E9-05E3C943F568}" name="result_trend_ema_gdax_LTC_USD_20190101_20190201" displayName="result_trend_ema_gdax_LTC_USD_20190101_20190201" ref="A1:C577" tableType="queryTable" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:C577" xr:uid="{C854B23F-2D5B-47A6-A9F7-CCEF89BC8255}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C577">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B53C459D-31ED-47E2-B5E9-05E3C943F568}" name="result_trend_ema_gdax_LTC_USD_20190101_20190201" displayName="result_trend_ema_gdax_LTC_USD_20190101_20190201" ref="A1:C579" tableType="queryTable" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:C579" xr:uid="{C854B23F-2D5B-47A6-A9F7-CCEF89BC8255}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C579">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{52E826E4-7C57-4EA3-AFF2-65D6AB004A41}" uniqueName="1" name="Percent" queryTableFieldId="1" dataDxfId="12" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{D87BF18B-AC6D-4A41-AEE6-B7206902748E}" uniqueName="2" name="WinLoss" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2EB2DE47-B43B-419E-B77C-EA04F8E79611}" uniqueName="3" name="StrategyProcess" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{D87BF18B-AC6D-4A41-AEE6-B7206902748E}" uniqueName="2" name="WinLoss" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{2EB2DE47-B43B-419E-B77C-EA04F8E79611}" uniqueName="3" name="StrategyProcess" queryTableFieldId="3" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3E900DFC-46B4-49A7-9F0B-AE1FCD347FDA}" name="result_trend_ema_gdax_LTC_USD_20181201_201901014" displayName="result_trend_ema_gdax_LTC_USD_20181201_201901014" ref="A2:C578" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3E900DFC-46B4-49A7-9F0B-AE1FCD347FDA}" name="result_trend_ema_gdax_LTC_USD_20181201_201901014" displayName="result_trend_ema_gdax_LTC_USD_20181201_201901014" ref="A2:C578" tableType="queryTable" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A2:C578" xr:uid="{6E9612C2-27A4-4BCD-8268-CBBDB5FF20C5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C578">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B79EBAA8-82E3-4DD4-8EDE-EE098007ED98}" uniqueName="1" name="Percent" queryTableFieldId="1" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{8C87CAE6-0B1C-4D15-AAB3-4EB0E56A0F3A}" uniqueName="2" name="WinLoss" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{DD5B7323-7C20-445C-B9DA-A199C3912250}" uniqueName="3" name="StrategyProcess" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{B79EBAA8-82E3-4DD4-8EDE-EE098007ED98}" uniqueName="1" name="Percent" queryTableFieldId="1" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{8C87CAE6-0B1C-4D15-AAB3-4EB0E56A0F3A}" uniqueName="2" name="WinLoss" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DD5B7323-7C20-445C-B9DA-A199C3912250}" uniqueName="3" name="StrategyProcess" queryTableFieldId="3" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5ED9FC1E-BF11-44A0-9FEE-365286BDC7A7}" name="result_trend_ema_gdax_LTC_USD_20190101_201902015" displayName="result_trend_ema_gdax_LTC_USD_20190101_201902015" ref="E2:G578" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5ED9FC1E-BF11-44A0-9FEE-365286BDC7A7}" name="result_trend_ema_gdax_LTC_USD_20190101_201902015" displayName="result_trend_ema_gdax_LTC_USD_20190101_201902015" ref="E2:G578" tableType="queryTable" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="E2:G578" xr:uid="{B1232AEB-8F11-43A8-BF30-839144956C48}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:G578">
     <sortCondition descending="1" ref="E1"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7E6E20CB-BF1C-402C-B65C-9298C47AF35A}" uniqueName="1" name="Percent" queryTableFieldId="1" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{F511526F-7332-48E8-B0EB-52C1F8CB3A20}" uniqueName="2" name="WinLoss" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A9BD3B02-51FA-443E-9235-156B45AE3B82}" uniqueName="3" name="StrategyProcess" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7E6E20CB-BF1C-402C-B65C-9298C47AF35A}" uniqueName="1" name="Percent" queryTableFieldId="1" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{F511526F-7332-48E8-B0EB-52C1F8CB3A20}" uniqueName="2" name="WinLoss" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A9BD3B02-51FA-443E-9235-156B45AE3B82}" uniqueName="3" name="StrategyProcess" queryTableFieldId="3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4773,8 +4789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F173CDA9-2456-40B5-A306-3EB5580AC433}">
   <dimension ref="A1:C577"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
@@ -11143,10 +11159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E990853A-982B-4994-86FC-647F87A191CD}">
-  <dimension ref="A1:C577"/>
+  <dimension ref="A1:C579"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
@@ -11170,420 +11186,413 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>0.1857</v>
+        <v>1.4200999999999999</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>358</v>
+        <v>1301</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>805</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>0.18029999999999999</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>804</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>9.5299999999999996E-2</v>
+        <v>0.1857</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>358</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>722</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>9.2700000000000005E-2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>723</v>
+      <c r="A5" s="4">
+        <v>0.18029999999999999</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>8.9499999999999996E-2</v>
+        <v>9.5299999999999996E-2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1009</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>8.9300000000000004E-2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1010</v>
+      <c r="A7" s="5">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>8.7099999999999997E-2</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>703</v>
+        <v>174</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1034</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>8.5099999999999995E-2</v>
+        <v>8.9300000000000004E-2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>703</v>
+        <v>174</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1033</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>8.4199999999999997E-2</v>
+        <v>8.7099999999999997E-2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>684</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>8.3599999999999994E-2</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>685</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>7.3099999999999998E-2</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>801</v>
+        <v>683</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>803</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>7.2900000000000006E-2</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>801</v>
+        <v>683</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>802</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>6.2E-2</v>
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>698</v>
+        <v>801</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>700</v>
+        <v>803</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>6.1899999999999997E-2</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>6.1499999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>5.6099999999999997E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>817</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>5.0700000000000002E-2</v>
+        <v>6.1499999999999999E-2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>4.9700000000000001E-2</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>703</v>
+        <v>817</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>715</v>
+        <v>819</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>4.7699999999999999E-2</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>595</v>
+        <v>703</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>810</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>4.7600000000000003E-2</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>595</v>
+        <v>703</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>809</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>3.9300000000000002E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>237</v>
+        <v>595</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>735</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>3.8300000000000001E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>237</v>
+        <v>595</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>734</v>
+        <v>809</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>3.5099999999999999E-2</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>606</v>
+        <v>237</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1011</v>
+        <v>735</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>3.39E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>606</v>
+        <v>237</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1012</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>2.41E-2</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>739</v>
+        <v>606</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>740</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>2.0400000000000001E-2</v>
+        <v>3.39E-2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>739</v>
+        <v>606</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>741</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>1.4200000000000001E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>739</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1021</v>
+        <v>740</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>1.37E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>739</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1022</v>
+        <v>741</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>9.9000000000000008E-3</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>575</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>9.4999999999999998E-3</v>
+        <v>1.37E-2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>575</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>575</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>813</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>6.4999999999999997E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>575</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>814</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>6.3E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1110</v>
+        <v>575</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1111</v>
+        <v>813</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>6.3E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1110</v>
+        <v>575</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1212</v>
+        <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>6.1000000000000004E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1110</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>6.1000000000000004E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1110</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>0</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3</v>
+        <v>1110</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>681</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>0</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>3</v>
+        <v>1110</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>691</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -11594,7 +11603,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -11605,7 +11614,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -11616,7 +11625,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -11627,7 +11636,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>724</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -11638,7 +11647,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>725</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -11649,7 +11658,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -11660,7 +11669,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -11671,7 +11680,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -11682,7 +11691,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -11693,7 +11702,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -11704,7 +11713,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -11715,7 +11724,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -11726,7 +11735,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -11737,7 +11746,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -11748,7 +11757,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -11759,7 +11768,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -11770,7 +11779,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -11781,7 +11790,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -11792,7 +11801,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -11803,7 +11812,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -11814,7 +11823,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -11825,7 +11834,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -11836,7 +11845,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -11847,7 +11856,7 @@
         <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -11858,7 +11867,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -11869,7 +11878,7 @@
         <v>3</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -11880,7 +11889,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -11891,7 +11900,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -11902,7 +11911,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -11913,7 +11922,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -11924,7 +11933,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -11935,7 +11944,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -11946,7 +11955,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -11957,7 +11966,7 @@
         <v>3</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -11968,7 +11977,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -11979,7 +11988,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -11990,7 +11999,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -12001,7 +12010,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -12012,7 +12021,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -12023,7 +12032,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -12034,7 +12043,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -12045,7 +12054,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -12056,7 +12065,7 @@
         <v>3</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -12067,7 +12076,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -12078,7 +12087,7 @@
         <v>3</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -12089,7 +12098,7 @@
         <v>3</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -12100,7 +12109,7 @@
         <v>3</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -12111,7 +12120,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -12122,7 +12131,7 @@
         <v>3</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -12133,7 +12142,7 @@
         <v>3</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -12144,7 +12153,7 @@
         <v>3</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -12155,7 +12164,7 @@
         <v>3</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -12166,7 +12175,7 @@
         <v>3</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -12177,7 +12186,7 @@
         <v>3</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>850</v>
+        <v>788</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -12188,7 +12197,7 @@
         <v>3</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>851</v>
+        <v>789</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -12199,7 +12208,7 @@
         <v>3</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -12210,7 +12219,7 @@
         <v>3</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -12221,7 +12230,7 @@
         <v>3</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -12232,7 +12241,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -12243,7 +12252,7 @@
         <v>3</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -12254,7 +12263,7 @@
         <v>3</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -12265,7 +12274,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -12276,7 +12285,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -12287,7 +12296,7 @@
         <v>3</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -12298,7 +12307,7 @@
         <v>3</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -12309,7 +12318,7 @@
         <v>3</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -12320,7 +12329,7 @@
         <v>3</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -12331,7 +12340,7 @@
         <v>3</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -12342,7 +12351,7 @@
         <v>3</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -12353,7 +12362,7 @@
         <v>3</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -12364,7 +12373,7 @@
         <v>3</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -12375,7 +12384,7 @@
         <v>3</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -12386,7 +12395,7 @@
         <v>3</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -12397,7 +12406,7 @@
         <v>3</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -12408,7 +12417,7 @@
         <v>3</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -12419,7 +12428,7 @@
         <v>3</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -12430,7 +12439,7 @@
         <v>3</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -12441,7 +12450,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -12452,7 +12461,7 @@
         <v>3</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -12463,7 +12472,7 @@
         <v>3</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -12474,7 +12483,7 @@
         <v>3</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -12485,7 +12494,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -12496,7 +12505,7 @@
         <v>3</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -12507,7 +12516,7 @@
         <v>3</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -12518,7 +12527,7 @@
         <v>3</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -12529,7 +12538,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -12540,7 +12549,7 @@
         <v>3</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -12551,7 +12560,7 @@
         <v>3</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -12562,7 +12571,7 @@
         <v>3</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -12573,7 +12582,7 @@
         <v>3</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -12584,7 +12593,7 @@
         <v>3</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -12595,7 +12604,7 @@
         <v>3</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -12606,7 +12615,7 @@
         <v>3</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -12617,7 +12626,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -12628,7 +12637,7 @@
         <v>3</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -12639,7 +12648,7 @@
         <v>3</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
@@ -12650,7 +12659,7 @@
         <v>3</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
@@ -12661,7 +12670,7 @@
         <v>3</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
@@ -12672,7 +12681,7 @@
         <v>3</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
@@ -12683,7 +12692,7 @@
         <v>3</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
@@ -12694,7 +12703,7 @@
         <v>3</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
@@ -12705,7 +12714,7 @@
         <v>3</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>952</v>
+        <v>896</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
@@ -12716,7 +12725,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>953</v>
+        <v>897</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
@@ -12727,7 +12736,7 @@
         <v>3</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
@@ -12738,7 +12747,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -12749,7 +12758,7 @@
         <v>3</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -12760,7 +12769,7 @@
         <v>3</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
@@ -12771,7 +12780,7 @@
         <v>3</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
@@ -12782,7 +12791,7 @@
         <v>3</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
@@ -12793,7 +12802,7 @@
         <v>3</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
@@ -12804,7 +12813,7 @@
         <v>3</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -12815,7 +12824,7 @@
         <v>3</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -12826,7 +12835,7 @@
         <v>3</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -12837,7 +12846,7 @@
         <v>3</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -12848,7 +12857,7 @@
         <v>3</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -12859,7 +12868,7 @@
         <v>3</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -12870,7 +12879,7 @@
         <v>3</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -12881,7 +12890,7 @@
         <v>3</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -12892,7 +12901,7 @@
         <v>3</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -12903,7 +12912,7 @@
         <v>3</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -12914,7 +12923,7 @@
         <v>3</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -12925,7 +12934,7 @@
         <v>3</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -12936,7 +12945,7 @@
         <v>3</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -12947,7 +12956,7 @@
         <v>3</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -12958,7 +12967,7 @@
         <v>3</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
@@ -12969,7 +12978,7 @@
         <v>3</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -12980,7 +12989,7 @@
         <v>3</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -12991,7 +13000,7 @@
         <v>3</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
@@ -13002,7 +13011,7 @@
         <v>3</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
@@ -13013,7 +13022,7 @@
         <v>3</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
@@ -13024,7 +13033,7 @@
         <v>3</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
@@ -13035,7 +13044,7 @@
         <v>3</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
@@ -13046,7 +13055,7 @@
         <v>3</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
@@ -13057,7 +13066,7 @@
         <v>3</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
@@ -13068,7 +13077,7 @@
         <v>3</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
@@ -13079,7 +13088,7 @@
         <v>3</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -13090,7 +13099,7 @@
         <v>3</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -13101,7 +13110,7 @@
         <v>3</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -13112,7 +13121,7 @@
         <v>3</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -13123,7 +13132,7 @@
         <v>3</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -13134,7 +13143,7 @@
         <v>3</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -13145,7 +13154,7 @@
         <v>3</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -13156,7 +13165,7 @@
         <v>3</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -13167,7 +13176,7 @@
         <v>3</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -13178,7 +13187,7 @@
         <v>3</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -13189,7 +13198,7 @@
         <v>3</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
@@ -13200,7 +13209,7 @@
         <v>3</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
@@ -13211,7 +13220,7 @@
         <v>3</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -13222,7 +13231,7 @@
         <v>3</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
@@ -13233,7 +13242,7 @@
         <v>3</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>1050</v>
+        <v>998</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
@@ -13244,7 +13253,7 @@
         <v>3</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>1051</v>
+        <v>999</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -13255,7 +13264,7 @@
         <v>3</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
@@ -13266,7 +13275,7 @@
         <v>3</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
@@ -13277,7 +13286,7 @@
         <v>3</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
@@ -13288,7 +13297,7 @@
         <v>3</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -13299,7 +13308,7 @@
         <v>3</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
@@ -13310,7 +13319,7 @@
         <v>3</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
@@ -13321,7 +13330,7 @@
         <v>3</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
@@ -13332,7 +13341,7 @@
         <v>3</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
@@ -13343,7 +13352,7 @@
         <v>3</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
@@ -13354,7 +13363,7 @@
         <v>3</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
@@ -13365,7 +13374,7 @@
         <v>3</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
@@ -13376,7 +13385,7 @@
         <v>3</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
@@ -13387,7 +13396,7 @@
         <v>3</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
@@ -13398,7 +13407,7 @@
         <v>3</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
@@ -13409,7 +13418,7 @@
         <v>3</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
@@ -13420,7 +13429,7 @@
         <v>3</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
@@ -13431,7 +13440,7 @@
         <v>3</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
@@ -13442,7 +13451,7 @@
         <v>3</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
@@ -13453,7 +13462,7 @@
         <v>3</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
@@ -13464,7 +13473,7 @@
         <v>3</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
@@ -13475,7 +13484,7 @@
         <v>3</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
@@ -13486,7 +13495,7 @@
         <v>3</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
@@ -13497,7 +13506,7 @@
         <v>3</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
@@ -13508,7 +13517,7 @@
         <v>3</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
@@ -13519,7 +13528,7 @@
         <v>3</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
@@ -13530,7 +13539,7 @@
         <v>3</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
@@ -13541,7 +13550,7 @@
         <v>3</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
@@ -13552,7 +13561,7 @@
         <v>3</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
@@ -13563,7 +13572,7 @@
         <v>3</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
@@ -13574,7 +13583,7 @@
         <v>3</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
@@ -13585,7 +13594,7 @@
         <v>3</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
@@ -13596,7 +13605,7 @@
         <v>3</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
@@ -13607,7 +13616,7 @@
         <v>3</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
@@ -13618,7 +13627,7 @@
         <v>3</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
@@ -13629,7 +13638,7 @@
         <v>3</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
@@ -13640,7 +13649,7 @@
         <v>3</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
@@ -13651,7 +13660,7 @@
         <v>3</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
@@ -13662,7 +13671,7 @@
         <v>3</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
@@ -13673,7 +13682,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
@@ -13684,7 +13693,7 @@
         <v>3</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
@@ -13695,7 +13704,7 @@
         <v>3</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
@@ -13706,7 +13715,7 @@
         <v>3</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
@@ -13717,7 +13726,7 @@
         <v>3</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
@@ -13728,7 +13737,7 @@
         <v>3</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
@@ -13739,7 +13748,7 @@
         <v>3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
@@ -13750,7 +13759,7 @@
         <v>3</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
@@ -13761,7 +13770,7 @@
         <v>3</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>1148</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
@@ -13772,7 +13781,7 @@
         <v>3</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>1149</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
@@ -13783,7 +13792,7 @@
         <v>3</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
@@ -13794,7 +13803,7 @@
         <v>3</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
@@ -13805,7 +13814,7 @@
         <v>3</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
@@ -13816,7 +13825,7 @@
         <v>3</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
@@ -13827,7 +13836,7 @@
         <v>3</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
@@ -13838,7 +13847,7 @@
         <v>3</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
@@ -13849,7 +13858,7 @@
         <v>3</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
@@ -13860,7 +13869,7 @@
         <v>3</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
@@ -13871,7 +13880,7 @@
         <v>3</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
@@ -13882,7 +13891,7 @@
         <v>3</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
@@ -13893,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
@@ -13904,7 +13913,7 @@
         <v>3</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
@@ -13915,7 +13924,7 @@
         <v>3</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
@@ -13926,7 +13935,7 @@
         <v>3</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
@@ -13937,7 +13946,7 @@
         <v>3</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
@@ -13948,7 +13957,7 @@
         <v>3</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
@@ -13959,7 +13968,7 @@
         <v>3</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
@@ -13970,7 +13979,7 @@
         <v>3</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
@@ -13981,7 +13990,7 @@
         <v>3</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
@@ -13992,7 +14001,7 @@
         <v>3</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
@@ -14003,7 +14012,7 @@
         <v>3</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
@@ -14014,7 +14023,7 @@
         <v>3</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
@@ -14025,7 +14034,7 @@
         <v>3</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
@@ -14036,7 +14045,7 @@
         <v>3</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
@@ -14047,7 +14056,7 @@
         <v>3</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
@@ -14058,7 +14067,7 @@
         <v>3</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
@@ -14069,7 +14078,7 @@
         <v>3</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
@@ -14080,7 +14089,7 @@
         <v>3</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
@@ -14091,7 +14100,7 @@
         <v>3</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
@@ -14102,7 +14111,7 @@
         <v>3</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
@@ -14113,7 +14122,7 @@
         <v>3</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
@@ -14124,7 +14133,7 @@
         <v>3</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
@@ -14135,7 +14144,7 @@
         <v>3</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
@@ -14146,7 +14155,7 @@
         <v>3</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
@@ -14157,7 +14166,7 @@
         <v>3</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
@@ -14168,7 +14177,7 @@
         <v>3</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
@@ -14179,7 +14188,7 @@
         <v>3</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
@@ -14190,7 +14199,7 @@
         <v>3</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
@@ -14201,7 +14210,7 @@
         <v>3</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
@@ -14212,7 +14221,7 @@
         <v>3</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
@@ -14223,7 +14232,7 @@
         <v>3</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
@@ -14234,7 +14243,7 @@
         <v>3</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
@@ -14245,7 +14254,7 @@
         <v>3</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>1248</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
@@ -14256,7 +14265,7 @@
         <v>3</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>1249</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
@@ -14267,7 +14276,7 @@
         <v>3</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
@@ -14278,7 +14287,7 @@
         <v>3</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
@@ -14289,7 +14298,7 @@
         <v>3</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
@@ -14300,7 +14309,7 @@
         <v>3</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
@@ -14311,7 +14320,7 @@
         <v>3</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
@@ -14322,7 +14331,7 @@
         <v>3</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
@@ -14333,7 +14342,7 @@
         <v>3</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
@@ -14344,7 +14353,7 @@
         <v>3</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
@@ -14355,7 +14364,7 @@
         <v>3</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
@@ -14366,7 +14375,7 @@
         <v>3</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
@@ -14377,7 +14386,7 @@
         <v>3</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
@@ -14388,7 +14397,7 @@
         <v>3</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
@@ -14399,7 +14408,7 @@
         <v>3</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
@@ -14410,7 +14419,7 @@
         <v>3</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
@@ -14421,7 +14430,7 @@
         <v>3</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
@@ -14432,7 +14441,7 @@
         <v>3</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
@@ -14443,7 +14452,7 @@
         <v>3</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
@@ -14454,7 +14463,7 @@
         <v>3</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
@@ -14465,7 +14474,7 @@
         <v>3</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
@@ -14476,7 +14485,7 @@
         <v>3</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
@@ -14487,7 +14496,7 @@
         <v>3</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
@@ -14498,7 +14507,7 @@
         <v>3</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
@@ -14509,7 +14518,7 @@
         <v>3</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
@@ -14520,7 +14529,7 @@
         <v>3</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
@@ -14531,7 +14540,7 @@
         <v>3</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
@@ -14542,7 +14551,7 @@
         <v>3</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
@@ -14553,7 +14562,7 @@
         <v>3</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
@@ -14564,7 +14573,7 @@
         <v>3</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
@@ -14575,7 +14584,7 @@
         <v>3</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
@@ -14586,7 +14595,7 @@
         <v>3</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
@@ -14597,7 +14606,7 @@
         <v>3</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
@@ -14608,7 +14617,7 @@
         <v>3</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
@@ -14619,7 +14628,7 @@
         <v>3</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
@@ -14630,7 +14639,7 @@
         <v>3</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
@@ -14641,7 +14650,7 @@
         <v>3</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
@@ -14652,7 +14661,7 @@
         <v>3</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
@@ -14663,7 +14672,7 @@
         <v>3</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
@@ -14674,7 +14683,7 @@
         <v>3</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
@@ -14685,480 +14694,480 @@
         <v>3</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="4">
-        <v>-8.0000000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>695</v>
+        <v>3</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>696</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="4">
-        <v>-8.0000000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>1036</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="4">
-        <v>-8.9999999999999998E-4</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>140</v>
+        <v>695</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>1035</v>
+        <v>696</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="4">
-        <v>-1.6999999999999999E-3</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>695</v>
+        <v>140</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>697</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="4">
-        <v>-5.0000000000000001E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>806</v>
+        <v>140</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>807</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="4">
-        <v>-5.8999999999999999E-3</v>
+        <v>-1.6999999999999999E-3</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="4">
-        <v>-5.8999999999999999E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="4">
-        <v>-6.4999999999999997E-3</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>717</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="4">
-        <v>-1.17E-2</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>683</v>
+        <v>806</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>1049</v>
+        <v>808</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="4">
-        <v>-1.35E-2</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>683</v>
+        <v>717</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>1048</v>
+        <v>719</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="4">
-        <v>-1.52E-2</v>
+        <v>-1.17E-2</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1006</v>
+        <v>683</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>1007</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="4">
-        <v>-1.6299999999999999E-2</v>
+        <v>-1.35E-2</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1006</v>
+        <v>683</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>1008</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="4">
-        <v>-1.8700000000000001E-2</v>
+        <v>-1.52E-2</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>456</v>
+        <v>1006</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>682</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="4">
-        <v>-2.3800000000000002E-2</v>
+        <v>-1.6299999999999999E-2</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>728</v>
+        <v>1006</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>729</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="4">
-        <v>-2.3900000000000001E-2</v>
+        <v>-1.8700000000000001E-2</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>728</v>
+        <v>456</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>730</v>
+        <v>682</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="4">
-        <v>-2.6200000000000001E-2</v>
+        <v>-2.3800000000000002E-2</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>483</v>
+        <v>728</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="4">
-        <v>-2.6599999999999999E-2</v>
+        <v>-2.3900000000000001E-2</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>595</v>
+        <v>728</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>835</v>
+        <v>730</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="4">
-        <v>-2.75E-2</v>
+        <v>-2.6200000000000001E-2</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>483</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" s="4">
-        <v>-2.7900000000000001E-2</v>
+        <v>-2.6599999999999999E-2</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>595</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="4">
-        <v>-3.0800000000000001E-2</v>
+        <v>-2.75E-2</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>790</v>
+        <v>483</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>791</v>
+        <v>727</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="4">
-        <v>-3.1699999999999999E-2</v>
+        <v>-2.7900000000000001E-2</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>790</v>
+        <v>595</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>792</v>
+        <v>836</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="4">
-        <v>-3.3399999999999999E-2</v>
+        <v>-3.0800000000000001E-2</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>617</v>
+        <v>790</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>701</v>
+        <v>791</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" s="4">
-        <v>-3.4599999999999999E-2</v>
+        <v>-3.1699999999999999E-2</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>617</v>
+        <v>790</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>702</v>
+        <v>792</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="4">
-        <v>-3.6999999999999998E-2</v>
+        <v>-3.3399999999999999E-2</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>174</v>
+        <v>617</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>824</v>
+        <v>701</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="4">
-        <v>-3.7499999999999999E-2</v>
+        <v>-3.4599999999999999E-2</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>174</v>
+        <v>617</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>823</v>
+        <v>702</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="4">
-        <v>-3.7600000000000001E-2</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>837</v>
+        <v>174</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="4">
-        <v>-3.7900000000000003E-2</v>
+        <v>-3.7499999999999999E-2</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>837</v>
+        <v>174</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" s="4">
-        <v>-4.02E-2</v>
+        <v>-3.7600000000000001E-2</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>912</v>
+        <v>837</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>913</v>
+        <v>838</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="4">
-        <v>-4.0399999999999998E-2</v>
+        <v>-3.7900000000000003E-2</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>798</v>
+        <v>837</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>799</v>
+        <v>839</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="4">
-        <v>-4.0399999999999998E-2</v>
+        <v>-4.02E-2</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>912</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="4">
-        <v>-4.0899999999999999E-2</v>
+        <v>-4.0399999999999998E-2</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>58</v>
+        <v>798</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>910</v>
+        <v>799</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="4">
-        <v>-4.3799999999999999E-2</v>
+        <v>-4.0399999999999998E-2</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>58</v>
+        <v>912</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" s="4">
-        <v>-4.4200000000000003E-2</v>
+        <v>-4.0899999999999999E-2</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>798</v>
+        <v>58</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>800</v>
+        <v>910</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="4">
-        <v>-4.4699999999999997E-2</v>
+        <v>-4.3799999999999999E-2</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>811</v>
+        <v>911</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="4">
-        <v>-4.4900000000000002E-2</v>
+        <v>-4.4200000000000003E-2</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>55</v>
+        <v>798</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="4">
-        <v>-4.5600000000000002E-2</v>
+        <v>-4.4699999999999997E-2</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1110</v>
+        <v>55</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>1113</v>
+        <v>811</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="4">
-        <v>-4.5600000000000002E-2</v>
+        <v>-4.4900000000000002E-2</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1110</v>
+        <v>55</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1214</v>
+        <v>812</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="4">
-        <v>-4.6100000000000002E-2</v>
+        <v>-4.5600000000000002E-2</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>358</v>
+        <v>1110</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>720</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="4">
-        <v>-4.6300000000000001E-2</v>
+        <v>-4.5600000000000002E-2</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>1110</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>1114</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="4">
-        <v>-4.6300000000000001E-2</v>
+        <v>-4.6100000000000002E-2</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1110</v>
+        <v>358</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1215</v>
+        <v>720</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="4">
-        <v>-5.4100000000000002E-2</v>
+        <v>-4.6300000000000001E-2</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>806</v>
+        <v>1110</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1000</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="4">
-        <v>-5.4899999999999997E-2</v>
+        <v>-4.6300000000000001E-2</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>358</v>
+        <v>1110</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>721</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="4">
-        <v>-5.4899999999999997E-2</v>
+        <v>-5.4100000000000002E-2</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
@@ -15166,10 +15175,10 @@
         <v>-5.4899999999999997E-2</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1135</v>
+        <v>358</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>1136</v>
+        <v>721</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
@@ -15177,76 +15186,76 @@
         <v>-5.4899999999999997E-2</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1135</v>
+        <v>806</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>1236</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="4">
-        <v>-5.5199999999999999E-2</v>
+        <v>-5.4899999999999997E-2</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>1135</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="4">
-        <v>-5.5199999999999999E-2</v>
+        <v>-5.4899999999999997E-2</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>1135</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="4">
-        <v>-5.7599999999999998E-2</v>
+        <v>-5.5199999999999999E-2</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>483</v>
+        <v>1135</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1025</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="4">
-        <v>-5.8000000000000003E-2</v>
+        <v>-5.5199999999999999E-2</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>483</v>
+        <v>1135</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>1026</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="4">
-        <v>-5.8799999999999998E-2</v>
+        <v>-5.7599999999999998E-2</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>939</v>
+        <v>483</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>1098</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="4">
-        <v>-5.8799999999999998E-2</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>939</v>
+        <v>483</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>1100</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
@@ -15257,7 +15266,7 @@
         <v>939</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
@@ -15268,7 +15277,7 @@
         <v>939</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>1115</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
@@ -15279,7 +15288,7 @@
         <v>939</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>1200</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
@@ -15290,7 +15299,7 @@
         <v>939</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>1202</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
@@ -15301,7 +15310,7 @@
         <v>939</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
@@ -15312,29 +15321,29 @@
         <v>939</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>1216</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" s="4">
-        <v>-5.9700000000000003E-2</v>
+        <v>-5.8799999999999998E-2</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>939</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>1099</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="4">
-        <v>-5.9700000000000003E-2</v>
+        <v>-5.8799999999999998E-2</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>939</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>1101</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
@@ -15345,7 +15354,7 @@
         <v>939</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
@@ -15356,7 +15365,7 @@
         <v>939</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
@@ -15367,7 +15376,7 @@
         <v>939</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>1201</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
@@ -15378,7 +15387,7 @@
         <v>939</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>1203</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
@@ -15389,7 +15398,7 @@
         <v>939</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
@@ -15400,414 +15409,414 @@
         <v>939</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>1217</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" s="4">
-        <v>-6.2E-2</v>
+        <v>-5.9700000000000003E-2</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>806</v>
+        <v>939</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>1017</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" s="4">
-        <v>-6.2899999999999998E-2</v>
+        <v>-5.9700000000000003E-2</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>806</v>
+        <v>939</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>1018</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" s="4">
-        <v>-6.3700000000000007E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1272</v>
+        <v>806</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>1294</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" s="4">
-        <v>-6.5500000000000003E-2</v>
+        <v>-6.2899999999999998E-2</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>939</v>
+        <v>806</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>1218</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" s="4">
-        <v>-6.6500000000000004E-2</v>
+        <v>-6.3700000000000007E-2</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>939</v>
+        <v>1272</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>1219</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" s="4">
-        <v>-6.8599999999999994E-2</v>
+        <v>-6.5500000000000003E-2</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1041</v>
+        <v>939</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1042</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" s="4">
-        <v>-6.9099999999999995E-2</v>
+        <v>-6.6500000000000004E-2</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1041</v>
+        <v>939</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>1043</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" s="4">
-        <v>-7.3800000000000004E-2</v>
+        <v>-6.8599999999999994E-2</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>912</v>
+        <v>1041</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>1013</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" s="4">
-        <v>-7.4399999999999994E-2</v>
+        <v>-6.9099999999999995E-2</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>912</v>
+        <v>1041</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>1014</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" s="4">
-        <v>-8.6900000000000005E-2</v>
+        <v>-7.3800000000000004E-2</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>916</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" s="4">
-        <v>-8.7300000000000003E-2</v>
+        <v>-7.4399999999999994E-2</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1289</v>
+        <v>912</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>1290</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" s="4">
-        <v>-8.7599999999999997E-2</v>
+        <v>-8.6900000000000005E-2</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>915</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" s="4">
-        <v>-8.9499999999999996E-2</v>
+        <v>-8.7300000000000003E-2</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1272</v>
+        <v>1289</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>1273</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" s="4">
-        <v>-9.0200000000000002E-2</v>
+        <v>-8.7599999999999997E-2</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>698</v>
+        <v>915</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" s="4">
-        <v>-9.1300000000000006E-2</v>
+        <v>-8.9499999999999996E-2</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>698</v>
+        <v>1272</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>902</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" s="4">
-        <v>-9.2499999999999999E-2</v>
+        <v>-9.0200000000000002E-2</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>898</v>
+        <v>698</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" s="4">
-        <v>-9.3399999999999997E-2</v>
+        <v>-9.1300000000000006E-2</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>898</v>
+        <v>698</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" s="4">
-        <v>-9.5000000000000001E-2</v>
+        <v>-9.2499999999999999E-2</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>462</v>
+        <v>898</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>922</v>
+        <v>899</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405" s="4">
-        <v>-9.5500000000000002E-2</v>
+        <v>-9.3399999999999997E-2</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>462</v>
+        <v>898</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A406" s="4">
-        <v>-9.5799999999999996E-2</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>712</v>
+        <v>462</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>713</v>
+        <v>922</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407" s="4">
-        <v>-9.6000000000000002E-2</v>
+        <v>-9.5500000000000002E-2</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>939</v>
+        <v>462</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>1206</v>
+        <v>923</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408" s="4">
-        <v>-9.6000000000000002E-2</v>
+        <v>-9.5799999999999996E-2</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>939</v>
+        <v>712</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>1220</v>
+        <v>713</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409" s="4">
-        <v>-9.6799999999999997E-2</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>712</v>
+        <v>939</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>714</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410" s="4">
-        <v>-9.74E-2</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>939</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>1207</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411" s="4">
-        <v>-9.74E-2</v>
+        <v>-9.6799999999999997E-2</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>939</v>
+        <v>712</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>1221</v>
+        <v>714</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A412" s="4">
-        <v>-0.10009999999999999</v>
+        <v>-9.74E-2</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>898</v>
+        <v>939</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>918</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413" s="4">
-        <v>-0.10100000000000001</v>
+        <v>-9.74E-2</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>898</v>
+        <v>939</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>919</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414" s="4">
-        <v>-0.1014</v>
+        <v>-0.10009999999999999</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>606</v>
+        <v>898</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>815</v>
+        <v>918</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415" s="4">
-        <v>-0.10150000000000001</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>695</v>
+        <v>898</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>1222</v>
+        <v>919</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A416" s="4">
-        <v>-0.1031</v>
+        <v>-0.1014</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>695</v>
+        <v>606</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>1223</v>
+        <v>815</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417" s="4">
-        <v>-0.1038</v>
+        <v>-0.10150000000000001</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1135</v>
+        <v>695</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>1138</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418" s="4">
-        <v>-0.1038</v>
+        <v>-0.1031</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1135</v>
+        <v>695</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>1238</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419" s="4">
-        <v>-0.1042</v>
+        <v>-0.1038</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1291</v>
+        <v>1135</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>1292</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A420" s="4">
-        <v>-0.10440000000000001</v>
+        <v>-0.1038</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>1135</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>1139</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421" s="4">
-        <v>-0.10440000000000001</v>
+        <v>-0.1042</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1135</v>
+        <v>1291</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>1239</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422" s="4">
-        <v>-0.10580000000000001</v>
+        <v>-0.10440000000000001</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>912</v>
+        <v>1135</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>1123</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A423" s="4">
-        <v>-0.10580000000000001</v>
+        <v>-0.10440000000000001</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>912</v>
+        <v>1135</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>1125</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.35">
@@ -15818,7 +15827,7 @@
         <v>912</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.35">
@@ -15829,7 +15838,7 @@
         <v>912</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.35">
@@ -15840,7 +15849,7 @@
         <v>912</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>1224</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.35">
@@ -15851,7 +15860,7 @@
         <v>912</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>1226</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
@@ -15862,7 +15871,7 @@
         <v>912</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
@@ -15873,29 +15882,29 @@
         <v>912</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>1240</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A430" s="4">
-        <v>-0.1065</v>
+        <v>-0.10580000000000001</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>912</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>1124</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A431" s="4">
-        <v>-0.1065</v>
+        <v>-0.10580000000000001</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>912</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>1126</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
@@ -15906,7 +15915,7 @@
         <v>912</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
@@ -15917,7 +15926,7 @@
         <v>912</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>1141</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
@@ -15928,7 +15937,7 @@
         <v>912</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>1225</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.35">
@@ -15939,7 +15948,7 @@
         <v>912</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>1227</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.35">
@@ -15950,7 +15959,7 @@
         <v>912</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
@@ -15961,1085 +15970,1085 @@
         <v>912</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A438" s="4">
-        <v>-0.1066</v>
+        <v>-0.1065</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>606</v>
+        <v>912</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>816</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A439" s="4">
-        <v>-0.1076</v>
+        <v>-0.1065</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1274</v>
+        <v>912</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>1275</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A440" s="4">
-        <v>-0.10829999999999999</v>
+        <v>-0.1066</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>820</v>
+        <v>606</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A441" s="4">
-        <v>-0.10929999999999999</v>
+        <v>-0.1076</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>1274</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1286</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A442" s="4">
-        <v>-0.1095</v>
+        <v>-0.10829999999999999</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>820</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A443" s="4">
-        <v>-0.11169999999999999</v>
+        <v>-0.10929999999999999</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>731</v>
+        <v>1274</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1046</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A444" s="4">
-        <v>-0.11210000000000001</v>
+        <v>-0.1095</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>20</v>
+        <v>820</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>1210</v>
+        <v>822</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A445" s="4">
-        <v>-0.11269999999999999</v>
+        <v>-0.11169999999999999</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>731</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A446" s="4">
-        <v>-0.1143</v>
+        <v>-0.11210000000000001</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A447" s="4">
-        <v>-0.1183</v>
+        <v>-0.11269999999999999</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>595</v>
+        <v>731</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>1208</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A448" s="4">
-        <v>-0.1188</v>
+        <v>-0.1143</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>915</v>
+        <v>20</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>1015</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A449" s="4">
-        <v>-0.1191</v>
+        <v>-0.1183</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>731</v>
+        <v>595</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>732</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A450" s="4">
-        <v>-0.11940000000000001</v>
+        <v>-0.1188</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>731</v>
+        <v>915</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>733</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A451" s="4">
-        <v>-0.11990000000000001</v>
+        <v>-0.1191</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>915</v>
+        <v>731</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>1016</v>
+        <v>732</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452" s="4">
-        <v>-0.12</v>
+        <v>-0.11940000000000001</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>1039</v>
+        <v>733</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453" s="4">
-        <v>-0.1202</v>
+        <v>-0.11990000000000001</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>695</v>
+        <v>915</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>942</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454" s="4">
-        <v>-0.1203</v>
+        <v>-0.12</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>595</v>
+        <v>695</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>1209</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455" s="4">
-        <v>-0.1207</v>
+        <v>-0.1202</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>695</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>1040</v>
+        <v>942</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456" s="4">
-        <v>-0.121</v>
+        <v>-0.1203</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>695</v>
+        <v>595</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>943</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A457" s="4">
-        <v>-0.12180000000000001</v>
+        <v>-0.1207</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>575</v>
+        <v>695</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>793</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458" s="4">
-        <v>-0.1239</v>
+        <v>-0.121</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>790</v>
+        <v>695</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>840</v>
+        <v>943</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459" s="4">
-        <v>-0.1246</v>
+        <v>-0.12180000000000001</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>790</v>
+        <v>575</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>841</v>
+        <v>793</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A460" s="4">
-        <v>-0.12659999999999999</v>
+        <v>-0.1239</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>1287</v>
+        <v>790</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>1288</v>
+        <v>840</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A461" s="4">
-        <v>-0.12720000000000001</v>
+        <v>-0.1246</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>575</v>
+        <v>790</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>794</v>
+        <v>841</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A462" s="4">
-        <v>-0.128</v>
+        <v>-0.12659999999999999</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>595</v>
+        <v>1287</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>926</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A463" s="4">
-        <v>-0.1283</v>
+        <v>-0.12720000000000001</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>255</v>
+        <v>575</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>928</v>
+        <v>794</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A464" s="4">
-        <v>-0.129</v>
+        <v>-0.128</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>595</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A465" s="4">
-        <v>-0.12959999999999999</v>
+        <v>-0.1283</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A466" s="4">
-        <v>-0.12970000000000001</v>
+        <v>-0.129</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>1027</v>
+        <v>927</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A467" s="4">
-        <v>-0.13059999999999999</v>
+        <v>-0.12959999999999999</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>728</v>
+        <v>255</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>1002</v>
+        <v>929</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A468" s="4">
-        <v>-0.13100000000000001</v>
+        <v>-0.12970000000000001</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>617</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A469" s="4">
-        <v>-0.13250000000000001</v>
+        <v>-0.13059999999999999</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>728</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A470" s="4">
-        <v>-0.1361</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>1191</v>
+        <v>617</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>1192</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A471" s="4">
-        <v>-0.1381</v>
+        <v>-0.13250000000000001</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>944</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A472" s="4">
-        <v>-0.13869999999999999</v>
+        <v>-0.1361</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>842</v>
+        <v>1191</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>1029</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A473" s="4">
-        <v>-0.13869999999999999</v>
+        <v>-0.1381</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>842</v>
+        <v>698</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>1044</v>
+        <v>944</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A474" s="4">
-        <v>-0.13930000000000001</v>
+        <v>-0.13869999999999999</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>698</v>
+        <v>842</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>945</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A475" s="4">
-        <v>-0.14019999999999999</v>
+        <v>-0.13869999999999999</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>1172</v>
+        <v>842</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>1173</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A476" s="4">
-        <v>-0.14050000000000001</v>
+        <v>-0.13930000000000001</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>842</v>
+        <v>698</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>1030</v>
+        <v>945</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A477" s="4">
-        <v>-0.14050000000000001</v>
+        <v>-0.14019999999999999</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>842</v>
+        <v>1172</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>1045</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A478" s="4">
-        <v>-0.14249999999999999</v>
+        <v>-0.14050000000000001</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>795</v>
+        <v>842</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>796</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A479" s="4">
-        <v>-0.14430000000000001</v>
+        <v>-0.14050000000000001</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>1004</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A480" s="4">
-        <v>-0.14430000000000001</v>
+        <v>-0.14249999999999999</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>1019</v>
+        <v>796</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A481" s="4">
-        <v>-0.1467</v>
+        <v>-0.14430000000000001</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>820</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A482" s="4">
-        <v>-0.1467</v>
+        <v>-0.14430000000000001</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>820</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A483" s="4">
-        <v>-0.14849999999999999</v>
+        <v>-0.1467</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>795</v>
+        <v>820</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>797</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A484" s="4">
-        <v>-0.15140000000000001</v>
+        <v>-0.1467</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>717</v>
+        <v>820</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>938</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A485" s="4">
-        <v>-0.15429999999999999</v>
+        <v>-0.14849999999999999</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>717</v>
+        <v>795</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>937</v>
+        <v>797</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A486" s="4">
-        <v>-0.15709999999999999</v>
+        <v>-0.15140000000000001</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>1185</v>
+        <v>717</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>1186</v>
+        <v>938</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A487" s="4">
-        <v>-0.15770000000000001</v>
+        <v>-0.15429999999999999</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>801</v>
+        <v>717</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A488" s="4">
-        <v>-0.1595</v>
+        <v>-0.15709999999999999</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>939</v>
+        <v>1185</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>1037</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A489" s="4">
-        <v>-0.1598</v>
+        <v>-0.15770000000000001</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>939</v>
+        <v>801</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A490" s="4">
-        <v>-0.16009999999999999</v>
+        <v>-0.1595</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>801</v>
+        <v>939</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>925</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A491" s="4">
-        <v>-0.16009999999999999</v>
+        <v>-0.1598</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>939</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>1038</v>
+        <v>940</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A492" s="4">
-        <v>-0.1603</v>
+        <v>-0.16009999999999999</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>939</v>
+        <v>801</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A493" s="4">
-        <v>-0.16400000000000001</v>
+        <v>-0.16009999999999999</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>717</v>
+        <v>939</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>908</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A494" s="4">
-        <v>-0.16470000000000001</v>
+        <v>-0.1603</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>736</v>
+        <v>939</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>737</v>
+        <v>941</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A495" s="4">
-        <v>-0.1656</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>1041</v>
+        <v>717</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>1108</v>
+        <v>908</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A496" s="4">
-        <v>-0.1671</v>
+        <v>-0.16470000000000001</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>909</v>
+        <v>737</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A497" s="4">
-        <v>-0.16839999999999999</v>
+        <v>-0.1656</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>1041</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A498" s="4">
-        <v>-0.1706</v>
+        <v>-0.1671</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>905</v>
+        <v>717</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A499" s="4">
-        <v>-0.1709</v>
+        <v>-0.16839999999999999</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>736</v>
+        <v>1041</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>738</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A500" s="4">
-        <v>-0.1729</v>
+        <v>-0.1706</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>905</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A501" s="4">
-        <v>-0.17860000000000001</v>
+        <v>-0.1709</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>1187</v>
+        <v>736</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>1188</v>
+        <v>738</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A502" s="4">
-        <v>-0.1799</v>
+        <v>-0.1729</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>905</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>1031</v>
+        <v>907</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A503" s="4">
-        <v>-0.183</v>
+        <v>-0.17860000000000001</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>905</v>
+        <v>1187</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>1032</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A504" s="4">
-        <v>-0.1862</v>
+        <v>-0.1799</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>939</v>
+        <v>905</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>1117</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A505" s="4">
-        <v>-0.18729999999999999</v>
+        <v>-0.183</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>939</v>
+        <v>905</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>1118</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A506" s="4">
-        <v>-0.18770000000000001</v>
+        <v>-0.1862</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>143</v>
+        <v>939</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>950</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A507" s="4">
-        <v>-0.1885</v>
+        <v>-0.18729999999999999</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>143</v>
+        <v>939</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>951</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A508" s="4">
-        <v>-0.1898</v>
+        <v>-0.18770000000000001</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>703</v>
+        <v>143</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>705</v>
+        <v>950</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A509" s="4">
-        <v>-0.19259999999999999</v>
+        <v>-0.1885</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>703</v>
+        <v>143</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>704</v>
+        <v>951</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A510" s="4">
-        <v>-0.19289999999999999</v>
+        <v>-0.1898</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>934</v>
+        <v>703</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>935</v>
+        <v>705</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A511" s="4">
-        <v>-0.19389999999999999</v>
+        <v>-0.19259999999999999</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>934</v>
+        <v>703</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>936</v>
+        <v>704</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A512" s="4">
-        <v>-0.2024</v>
+        <v>-0.19289999999999999</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>832</v>
+        <v>934</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>834</v>
+        <v>935</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A513" s="4">
-        <v>-0.215</v>
+        <v>-0.19389999999999999</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>832</v>
+        <v>934</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>833</v>
+        <v>936</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A514" s="4">
-        <v>-0.21590000000000001</v>
+        <v>-0.2024</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1234</v>
+        <v>834</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A515" s="4">
-        <v>-0.2167</v>
+        <v>-0.215</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>939</v>
+        <v>832</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1104</v>
+        <v>833</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A516" s="4">
-        <v>-0.2167</v>
+        <v>-0.21590000000000001</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>939</v>
+        <v>837</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1119</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A517" s="4">
-        <v>-0.21779999999999999</v>
+        <v>-0.2167</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>837</v>
+        <v>939</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1235</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A518" s="4">
-        <v>-0.21809999999999999</v>
+        <v>-0.2167</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>939</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1105</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A519" s="4">
-        <v>-0.21809999999999999</v>
+        <v>-0.21779999999999999</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>939</v>
+        <v>837</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1120</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A520" s="4">
-        <v>-0.22220000000000001</v>
+        <v>-0.21809999999999999</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>695</v>
+        <v>939</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1121</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A521" s="4">
-        <v>-0.2238</v>
+        <v>-0.21809999999999999</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>695</v>
+        <v>939</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A522" s="4">
-        <v>-0.22570000000000001</v>
+        <v>-0.22220000000000001</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>790</v>
+        <v>695</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>903</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A523" s="4">
-        <v>-0.22570000000000001</v>
+        <v>-0.2238</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>790</v>
+        <v>695</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>920</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A524" s="4">
-        <v>-0.2271</v>
+        <v>-0.22570000000000001</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>790</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A525" s="4">
-        <v>-0.2271</v>
+        <v>-0.22570000000000001</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>790</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A526" s="4">
-        <v>-0.23019999999999999</v>
+        <v>-0.2271</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>709</v>
+        <v>790</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>711</v>
+        <v>904</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A527" s="4">
-        <v>-0.23300000000000001</v>
+        <v>-0.2271</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>912</v>
+        <v>790</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1142</v>
+        <v>921</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A528" s="4">
-        <v>-0.23300000000000001</v>
+        <v>-0.23019999999999999</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>912</v>
+        <v>709</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1242</v>
+        <v>711</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A529" s="4">
-        <v>-0.23350000000000001</v>
+        <v>-0.23300000000000001</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>709</v>
+        <v>912</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>710</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A530" s="4">
-        <v>-0.23369999999999999</v>
+        <v>-0.23300000000000001</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>912</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1143</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A531" s="4">
-        <v>-0.23369999999999999</v>
+        <v>-0.23350000000000001</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>912</v>
+        <v>709</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1243</v>
+        <v>710</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A532" s="4">
-        <v>-0.23899999999999999</v>
+        <v>-0.23369999999999999</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>595</v>
+        <v>912</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1106</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A533" s="4">
-        <v>-0.24099999999999999</v>
+        <v>-0.23369999999999999</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>595</v>
+        <v>912</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1107</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A534" s="4">
-        <v>-0.2525</v>
+        <v>-0.23899999999999999</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>912</v>
+        <v>595</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1129</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A535" s="4">
-        <v>-0.2525</v>
+        <v>-0.24099999999999999</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>912</v>
+        <v>595</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1144</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.35">
@@ -17050,7 +17059,7 @@
         <v>912</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1230</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.35">
@@ -17061,29 +17070,29 @@
         <v>912</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1244</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A538" s="4">
-        <v>-0.25340000000000001</v>
+        <v>-0.2525</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>912</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1130</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A539" s="4">
-        <v>-0.25340000000000001</v>
+        <v>-0.2525</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>912</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1145</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.35">
@@ -17094,7 +17103,7 @@
         <v>912</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1231</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.35">
@@ -17105,406 +17114,431 @@
         <v>912</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1245</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A542" s="4">
-        <v>-0.2581</v>
+        <v>-0.25340000000000001</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>731</v>
+        <v>912</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>930</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A543" s="4">
-        <v>-0.2581</v>
+        <v>-0.25340000000000001</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>731</v>
+        <v>912</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>946</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A544" s="4">
-        <v>-0.25979999999999998</v>
+        <v>-0.2581</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>731</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A545" s="4">
-        <v>-0.25979999999999998</v>
+        <v>-0.2581</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>731</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A546" s="4">
-        <v>-0.26840000000000003</v>
+        <v>-0.25979999999999998</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>237</v>
+        <v>731</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A547" s="4">
-        <v>-0.27110000000000001</v>
+        <v>-0.25979999999999998</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>237</v>
+        <v>731</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A548" s="4">
-        <v>-0.2772</v>
+        <v>-0.26840000000000003</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>915</v>
+        <v>237</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1146</v>
+        <v>948</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A549" s="4">
-        <v>-0.2772</v>
+        <v>-0.27110000000000001</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>915</v>
+        <v>237</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1246</v>
+        <v>949</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A550" s="4">
-        <v>-0.27839999999999998</v>
+        <v>-0.2772</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>915</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A551" s="4">
-        <v>-0.27839999999999998</v>
+        <v>-0.2772</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>915</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A552" s="4">
-        <v>-0.28639999999999999</v>
+        <v>-0.27839999999999998</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>38</v>
+        <v>915</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>689</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A553" s="4">
-        <v>-0.28960000000000002</v>
+        <v>-0.27839999999999998</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>38</v>
+        <v>915</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>690</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A554" s="4">
-        <v>-0.29299999999999998</v>
+        <v>-0.28639999999999999</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>898</v>
+        <v>38</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1131</v>
+        <v>689</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A555" s="4">
-        <v>-0.29299999999999998</v>
+        <v>-0.28960000000000002</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>898</v>
+        <v>38</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1232</v>
+        <v>690</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A556" s="4">
-        <v>-0.29449999999999998</v>
+        <v>-0.29299999999999998</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>898</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A557" s="4">
-        <v>-0.29449999999999998</v>
+        <v>-0.29299999999999998</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>898</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A558" s="4">
-        <v>-0.33629999999999999</v>
+        <v>-0.29449999999999998</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>817</v>
+        <v>898</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>932</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A559" s="4">
-        <v>-0.33660000000000001</v>
+        <v>-0.29449999999999998</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>837</v>
+        <v>898</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1133</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A560" s="4">
-        <v>-0.33860000000000001</v>
+        <v>-0.33629999999999999</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>1134</v>
+        <v>932</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A561" s="4">
-        <v>-0.3407</v>
+        <v>-0.33660000000000001</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>817</v>
+        <v>837</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>933</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A562" s="4">
-        <v>-0.35949999999999999</v>
+        <v>-0.33860000000000001</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>686</v>
+        <v>837</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>687</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A563" s="4">
-        <v>-0.35980000000000001</v>
+        <v>-0.3407</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>686</v>
+        <v>817</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>688</v>
+        <v>933</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A564" s="4">
-        <v>-0.37730000000000002</v>
+        <v>-0.35949999999999999</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>829</v>
+        <v>686</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>848</v>
+        <v>687</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A565" s="4">
-        <v>-0.39</v>
+        <v>-0.35980000000000001</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>829</v>
+        <v>686</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>849</v>
+        <v>688</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A566" s="4">
-        <v>-0.3957</v>
+        <v>-0.37730000000000002</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>706</v>
+        <v>829</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>707</v>
+        <v>848</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A567" s="4">
-        <v>-0.39750000000000002</v>
+        <v>-0.39</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>706</v>
+        <v>829</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>708</v>
+        <v>849</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A568" s="4">
-        <v>-0.41860000000000003</v>
+        <v>-0.3957</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>842</v>
+        <v>706</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>843</v>
+        <v>707</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A569" s="4">
-        <v>-0.41860000000000003</v>
+        <v>-0.39750000000000002</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>842</v>
+        <v>706</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>844</v>
+        <v>708</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A570" s="4">
-        <v>-0.42399999999999999</v>
+        <v>-0.41860000000000003</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A571" s="4">
-        <v>-0.42909999999999998</v>
+        <v>-0.41860000000000003</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A572" s="4">
-        <v>-0.46700000000000003</v>
+        <v>-0.42399999999999999</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>606</v>
+        <v>829</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A573" s="4">
-        <v>-0.4708</v>
+        <v>-0.42909999999999998</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>606</v>
+        <v>829</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A574" s="4">
-        <v>-0.47260000000000002</v>
+        <v>-0.46700000000000003</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>798</v>
+        <v>606</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A575" s="4">
-        <v>-0.48089999999999999</v>
+        <v>-0.4708</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>798</v>
+        <v>606</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A576" s="4">
-        <v>-0.58420000000000005</v>
+        <v>-0.47260000000000002</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>845</v>
+        <v>798</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A577" s="4">
+        <v>-0.48089999999999999</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A578" s="4">
+        <v>-0.58420000000000005</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A579" s="4">
         <v>-0.59099999999999997</v>
       </c>
-      <c r="B577" s="3" t="s">
+      <c r="B579" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="C577" s="3" t="s">
+      <c r="C579" s="3" t="s">
         <v>847</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
